--- a/FileCreationTool/FileCreationTool/Forms - Copy.xlsx
+++ b/FileCreationTool/FileCreationTool/Forms - Copy.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0F351579-F7E6-47F7-A880-243010AEDFC6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C49AE1FC-A73C-44A7-BA5A-C5D6756B48A9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="3" xr2:uid="{99400841-4EE0-4269-9D21-20194F5FB702}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="2" xr2:uid="{99400841-4EE0-4269-9D21-20194F5FB702}"/>
   </bookViews>
   <sheets>
     <sheet name="Hurricane" sheetId="1" r:id="rId1"/>
@@ -681,9 +681,6 @@
     <t>How many full-time</t>
   </si>
   <si>
-    <t>Required if "Are there any full or part-time employees connected to the business "Yes"</t>
-  </si>
-  <si>
     <t>employeesfulltime</t>
   </si>
   <si>
@@ -703,9 +700,6 @@
   </si>
   <si>
     <t>Any commercial appliances</t>
-  </si>
-  <si>
-    <t>Required if "Does the business involve food services? = "Yes"</t>
   </si>
   <si>
     <t>commercialappliances</t>
@@ -1356,6 +1350,12 @@
   </si>
   <si>
     <t>YES;NO -</t>
+  </si>
+  <si>
+    <t>Required if "Does the business involve food services?" is "Yes"</t>
+  </si>
+  <si>
+    <t>Required if "Are there any full or part-time employees connected to the business" is "Yes"</t>
   </si>
 </sst>
 </file>
@@ -2356,7 +2356,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C2" s="4">
         <v>11</v>
@@ -2386,7 +2386,7 @@
         <v>1</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>120</v>
@@ -2533,7 +2533,7 @@
         <v>33</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C7" s="17">
         <v>11</v>
@@ -2563,7 +2563,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>120</v>
@@ -2613,7 +2613,7 @@
         <v>64</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C9" s="17">
         <v>5</v>
@@ -2643,7 +2643,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="20" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O9" s="13" t="s">
         <v>61</v>
@@ -2730,7 +2730,7 @@
         <v>121</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C12" s="17">
         <v>11</v>
@@ -2760,7 +2760,7 @@
         <v>1</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O12" s="6" t="s">
         <v>120</v>
@@ -3156,7 +3156,7 @@
     </row>
     <row r="2" spans="1:45" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="108" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B2" s="109"/>
       <c r="C2" s="109"/>
@@ -3250,7 +3250,7 @@
         <v>82</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C4" s="42">
         <v>11</v>
@@ -3282,7 +3282,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="44" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O4" s="45" t="s">
         <v>124</v>
@@ -3294,7 +3294,7 @@
         <v>84</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C5" s="42">
         <v>11</v>
@@ -3326,7 +3326,7 @@
         <v>1</v>
       </c>
       <c r="N5" s="44" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O5" s="45" t="s">
         <v>124</v>
@@ -3338,7 +3338,7 @@
         <v>86</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C6" s="42">
         <v>11</v>
@@ -3370,7 +3370,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="35" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O6" s="38" t="s">
         <v>120</v>
@@ -3382,7 +3382,7 @@
         <v>88</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C7" s="46">
         <v>11</v>
@@ -3414,7 +3414,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="44" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O7" s="45" t="s">
         <v>124</v>
@@ -3430,8 +3430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D297CBDD-A81F-4E1E-9769-C766012E197B}">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3502,7 +3502,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="90" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C2" s="87">
         <v>11</v>
@@ -3534,7 +3534,7 @@
         <v>100</v>
       </c>
       <c r="N2" s="75" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O2" s="75" t="s">
         <v>120</v>
@@ -3613,7 +3613,7 @@
         <v>136</v>
       </c>
       <c r="B5" s="96" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C5" s="88"/>
       <c r="D5" s="93" t="s">
@@ -3655,7 +3655,7 @@
       </c>
       <c r="B6" s="97"/>
       <c r="C6" s="88"/>
-      <c r="D6" s="93" t="s">
+      <c r="D6" s="91" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="88"/>
@@ -3689,12 +3689,12 @@
         <v>142</v>
       </c>
       <c r="B7" s="98" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C7" s="88">
         <v>11</v>
       </c>
-      <c r="D7" s="93" t="s">
+      <c r="D7" s="91" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="88"/>
@@ -3721,7 +3721,7 @@
         <v>100</v>
       </c>
       <c r="N7" s="75" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O7" s="75" t="s">
         <v>120</v>
@@ -3732,10 +3732,10 @@
         <v>144</v>
       </c>
       <c r="B8" s="96" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C8" s="88"/>
-      <c r="D8" s="93" t="s">
+      <c r="D8" s="91" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="88"/>
@@ -3774,7 +3774,7 @@
       </c>
       <c r="B9" s="96"/>
       <c r="C9" s="88"/>
-      <c r="D9" s="93" t="s">
+      <c r="D9" s="91" t="s">
         <v>147</v>
       </c>
       <c r="E9" s="88"/>
@@ -3804,14 +3804,14 @@
       <c r="O9" s="70"/>
     </row>
     <row r="10" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="93" t="s">
+      <c r="A10" s="91" t="s">
         <v>149</v>
       </c>
       <c r="B10" s="96" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C10" s="96"/>
-      <c r="D10" s="93" t="s">
+      <c r="D10" s="91" t="s">
         <v>147</v>
       </c>
       <c r="E10" s="96"/>
@@ -3850,7 +3850,7 @@
       </c>
       <c r="B11" s="96"/>
       <c r="C11" s="96"/>
-      <c r="D11" s="93" t="s">
+      <c r="D11" s="91" t="s">
         <v>152</v>
       </c>
       <c r="E11" s="96"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="B12" s="96"/>
       <c r="C12" s="96"/>
-      <c r="D12" s="93" t="s">
+      <c r="D12" s="91" t="s">
         <v>147</v>
       </c>
       <c r="E12" s="96"/>
@@ -3920,7 +3920,7 @@
       </c>
       <c r="B13" s="96"/>
       <c r="C13" s="96"/>
-      <c r="D13" s="93" t="s">
+      <c r="D13" s="91" t="s">
         <v>147</v>
       </c>
       <c r="E13" s="96"/>
@@ -3954,7 +3954,7 @@
         <v>158</v>
       </c>
       <c r="B14" s="98" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C14" s="34">
         <v>11</v>
@@ -3986,7 +3986,7 @@
         <v>100</v>
       </c>
       <c r="N14" s="75" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O14" s="75" t="s">
         <v>120</v>
@@ -4067,7 +4067,7 @@
         <v>165</v>
       </c>
       <c r="B17" s="98" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C17" s="34">
         <v>11</v>
@@ -4099,7 +4099,7 @@
         <v>100</v>
       </c>
       <c r="N17" s="75" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O17" s="75" t="s">
         <v>120</v>
@@ -4145,7 +4145,7 @@
         <v>169</v>
       </c>
       <c r="B19" s="98" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C19" s="34">
         <v>11</v>
@@ -4177,7 +4177,7 @@
         <v>100</v>
       </c>
       <c r="N19" s="75" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O19" s="75" t="s">
         <v>120</v>
@@ -4223,7 +4223,7 @@
         <v>173</v>
       </c>
       <c r="B21" s="98" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C21" s="34">
         <v>11</v>
@@ -4255,7 +4255,7 @@
         <v>100</v>
       </c>
       <c r="N21" s="75" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O21" s="75" t="s">
         <v>120</v>
@@ -4299,7 +4299,7 @@
         <v>177</v>
       </c>
       <c r="B23" s="98" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C23" s="34">
         <v>11</v>
@@ -4331,7 +4331,7 @@
         <v>100</v>
       </c>
       <c r="N23" s="75" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O23" s="75" t="s">
         <v>120</v>
@@ -4377,7 +4377,7 @@
         <v>181</v>
       </c>
       <c r="B25" s="98" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C25" s="34">
         <v>11</v>
@@ -4409,7 +4409,7 @@
         <v>100</v>
       </c>
       <c r="N25" s="75" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O25" s="75" t="s">
         <v>120</v>
@@ -4421,13 +4421,13 @@
       </c>
       <c r="B26" s="96"/>
       <c r="C26" s="96"/>
-      <c r="D26" s="93" t="s">
-        <v>184</v>
+      <c r="D26" s="91" t="s">
+        <v>277</v>
       </c>
       <c r="E26" s="96"/>
       <c r="F26" s="68"/>
       <c r="G26" s="92" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H26" s="70" t="s">
         <v>24</v>
@@ -4452,17 +4452,17 @@
     </row>
     <row r="27" spans="1:15" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="93" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B27" s="96"/>
       <c r="C27" s="96"/>
-      <c r="D27" s="93" t="s">
-        <v>184</v>
+      <c r="D27" s="91" t="s">
+        <v>277</v>
       </c>
       <c r="E27" s="96"/>
       <c r="F27" s="68"/>
       <c r="G27" s="92" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H27" s="75" t="s">
         <v>24</v>
@@ -4487,7 +4487,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="72" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B28" s="72"/>
       <c r="C28" s="72"/>
@@ -4506,10 +4506,10 @@
     </row>
     <row r="29" spans="1:15" s="74" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="76" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B29" s="101" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C29" s="76"/>
       <c r="D29" s="70" t="s">
@@ -4518,7 +4518,7 @@
       <c r="E29" s="76"/>
       <c r="F29" s="76"/>
       <c r="G29" s="76" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H29" s="101" t="s">
         <v>24</v>
@@ -4547,21 +4547,21 @@
     </row>
     <row r="30" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="76" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B30" s="102" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C30" s="34">
         <v>11</v>
       </c>
       <c r="D30" s="70" t="s">
-        <v>192</v>
+        <v>276</v>
       </c>
       <c r="E30" s="34"/>
       <c r="F30" s="68"/>
       <c r="G30" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H30" s="75" t="s">
         <v>24</v>
@@ -4582,7 +4582,7 @@
         <v>100</v>
       </c>
       <c r="N30" s="75" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O30" s="75" t="s">
         <v>120</v>
@@ -4595,12 +4595,12 @@
       <c r="B31" s="103"/>
       <c r="C31" s="89"/>
       <c r="D31" s="93" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E31" s="89"/>
       <c r="F31" s="68"/>
       <c r="G31" s="92" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H31" s="75" t="s">
         <v>24</v>
@@ -4625,19 +4625,19 @@
     </row>
     <row r="32" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="93" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B32" s="103" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C32" s="34"/>
       <c r="D32" s="70" t="s">
-        <v>192</v>
+        <v>276</v>
       </c>
       <c r="E32" s="34"/>
       <c r="F32" s="68"/>
       <c r="G32" s="92" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H32" s="75" t="s">
         <v>24</v>
@@ -4671,12 +4671,12 @@
       <c r="B33" s="103"/>
       <c r="C33" s="89"/>
       <c r="D33" s="93" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E33" s="89"/>
       <c r="F33" s="68"/>
       <c r="G33" s="92" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H33" s="75" t="s">
         <v>24</v>
@@ -4701,21 +4701,21 @@
     </row>
     <row r="34" spans="1:15" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="76" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B34" s="104" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C34" s="89">
         <v>11</v>
       </c>
       <c r="D34" s="70" t="s">
-        <v>192</v>
+        <v>276</v>
       </c>
       <c r="E34" s="89"/>
       <c r="F34" s="68"/>
       <c r="G34" s="92" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H34" s="75" t="s">
         <v>24</v>
@@ -4736,7 +4736,7 @@
         <v>100</v>
       </c>
       <c r="N34" s="75" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O34" s="75" t="s">
         <v>120</v>
@@ -4749,12 +4749,12 @@
       <c r="B35" s="103"/>
       <c r="C35" s="89"/>
       <c r="D35" s="93" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E35" s="89"/>
       <c r="F35" s="99"/>
       <c r="G35" s="92" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H35" s="75" t="s">
         <v>24</v>
@@ -4779,21 +4779,21 @@
     </row>
     <row r="36" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="76" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B36" s="102" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C36" s="89">
         <v>11</v>
       </c>
       <c r="D36" s="70" t="s">
-        <v>192</v>
+        <v>276</v>
       </c>
       <c r="E36" s="89"/>
       <c r="F36" s="68"/>
       <c r="G36" s="92" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H36" s="105" t="s">
         <v>24</v>
@@ -4814,7 +4814,7 @@
         <v>100</v>
       </c>
       <c r="N36" s="75" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O36" s="75" t="s">
         <v>120</v>
@@ -4827,12 +4827,12 @@
       <c r="B37" s="103"/>
       <c r="C37" s="89"/>
       <c r="D37" s="93" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E37" s="89"/>
       <c r="F37" s="99"/>
       <c r="G37" s="92" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H37" s="105" t="s">
         <v>24</v>
@@ -4865,8 +4865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA74EE2-392D-41FC-93C3-3ACC3628CA38}">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4932,10 +4932,10 @@
     </row>
     <row r="2" spans="1:15" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="76" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B2" s="116" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C2" s="87">
         <v>11</v>
@@ -4946,7 +4946,7 @@
       <c r="E2" s="76"/>
       <c r="F2" s="76"/>
       <c r="G2" s="117" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H2" s="105" t="s">
         <v>18</v>
@@ -4967,10 +4967,10 @@
         <v>100</v>
       </c>
       <c r="N2" s="105" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O2" s="105" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="96.6" x14ac:dyDescent="0.3">
@@ -4985,7 +4985,7 @@
       <c r="E3" s="76"/>
       <c r="F3" s="76"/>
       <c r="G3" s="117" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H3" s="105" t="s">
         <v>24</v>
@@ -5010,10 +5010,10 @@
     </row>
     <row r="4" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="118" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B4" s="119" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C4" s="115"/>
       <c r="D4" s="71" t="s">
@@ -5022,7 +5022,7 @@
       <c r="E4" s="120"/>
       <c r="F4" s="121"/>
       <c r="G4" s="105" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H4" s="105" t="s">
         <v>24</v>
@@ -5043,18 +5043,18 @@
         <v>100</v>
       </c>
       <c r="N4" s="122" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O4" s="122" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="103.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="123" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B5" s="124" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C5" s="115">
         <v>11</v>
@@ -5065,7 +5065,7 @@
       <c r="E5" s="120"/>
       <c r="F5" s="121"/>
       <c r="G5" s="105" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H5" s="105" t="s">
         <v>24</v>
@@ -5086,18 +5086,18 @@
         <v>100</v>
       </c>
       <c r="N5" s="122" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O5" s="122" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="123" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B6" s="119" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C6" s="115">
         <v>11</v>
@@ -5108,7 +5108,7 @@
       <c r="E6" s="120"/>
       <c r="F6" s="121"/>
       <c r="G6" s="105" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H6" s="105" t="s">
         <v>24</v>
@@ -5129,15 +5129,15 @@
         <v>100</v>
       </c>
       <c r="N6" s="122" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O6" s="122" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A7" s="125" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B7" s="126" t="s">
         <v>125</v>
@@ -5149,7 +5149,7 @@
       <c r="E7" s="120"/>
       <c r="F7" s="120"/>
       <c r="G7" s="105" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H7" s="105" t="s">
         <v>24</v>
@@ -5173,26 +5173,26 @@
         <v>119</v>
       </c>
       <c r="O7" s="105" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="125" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B8" s="126" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C8" s="115">
         <v>3</v>
       </c>
       <c r="D8" s="71" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E8" s="120"/>
       <c r="F8" s="120"/>
       <c r="G8" s="105" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H8" s="105" t="s">
         <v>24</v>
@@ -5213,18 +5213,18 @@
         <v>100</v>
       </c>
       <c r="N8" s="105" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O8" s="105" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="127" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B9" s="124" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C9" s="115"/>
       <c r="D9" s="71" t="s">
@@ -5233,7 +5233,7 @@
       <c r="E9" s="120"/>
       <c r="F9" s="121"/>
       <c r="G9" s="117" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H9" s="105" t="s">
         <v>24</v>
@@ -5254,18 +5254,18 @@
         <v>100</v>
       </c>
       <c r="N9" s="122" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O9" s="122" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="127" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B10" s="124" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C10" s="115"/>
       <c r="D10" s="71" t="s">
@@ -5274,7 +5274,7 @@
       <c r="E10" s="120"/>
       <c r="F10" s="121"/>
       <c r="G10" s="117" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H10" s="105" t="s">
         <v>24</v>
@@ -5295,18 +5295,18 @@
         <v>100</v>
       </c>
       <c r="N10" s="122" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O10" s="122" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="128" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B11" s="129" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C11" s="115">
         <v>5</v>
@@ -5317,7 +5317,7 @@
       <c r="E11" s="120"/>
       <c r="F11" s="121"/>
       <c r="G11" s="105" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H11" s="105" t="s">
         <v>24</v>
@@ -5338,18 +5338,18 @@
         <v>100</v>
       </c>
       <c r="N11" s="105" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O11" s="105" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="128" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B12" s="129" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C12" s="115">
         <v>3</v>
@@ -5360,7 +5360,7 @@
       <c r="E12" s="120"/>
       <c r="F12" s="121"/>
       <c r="G12" s="105" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H12" s="105" t="s">
         <v>24</v>
@@ -5381,18 +5381,18 @@
         <v>100</v>
       </c>
       <c r="N12" s="105" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O12" s="105" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="128" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B13" s="129" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C13" s="115">
         <v>3</v>
@@ -5403,7 +5403,7 @@
       <c r="E13" s="120"/>
       <c r="F13" s="121"/>
       <c r="G13" s="105" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H13" s="105" t="s">
         <v>24</v>
@@ -5424,18 +5424,18 @@
         <v>100</v>
       </c>
       <c r="N13" s="105" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O13" s="105" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="128" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B14" s="129" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C14" s="115">
         <v>3</v>
@@ -5446,7 +5446,7 @@
       <c r="E14" s="120"/>
       <c r="F14" s="121"/>
       <c r="G14" s="105" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H14" s="105" t="s">
         <v>24</v>
@@ -5467,25 +5467,25 @@
         <v>100</v>
       </c>
       <c r="N14" s="105" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O14" s="105" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="130" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B15" s="131"/>
       <c r="C15" s="115"/>
       <c r="D15" s="71" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E15" s="120"/>
       <c r="F15" s="121"/>
       <c r="G15" s="117" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H15" s="105" t="s">
         <v>24</v>
